--- a/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2019-1.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2019-1.xlsx
@@ -73,31 +73,31 @@
     <t>Liquidación Voluntaria Empresa Deudora</t>
   </si>
   <si>
+    <t>Confesión De Deuda, Citación</t>
+  </si>
+  <si>
+    <t>Pesos, Cobro De</t>
+  </si>
+  <si>
+    <t>Nombre, Autorización Cambio De</t>
+  </si>
+  <si>
     <t>Perjuicios, Indemnización De</t>
   </si>
   <si>
-    <t>Pesos, Cobro De</t>
-  </si>
-  <si>
-    <t>Nombre, Autorización Cambio De</t>
-  </si>
-  <si>
-    <t>Confesión De Deuda, Citación</t>
-  </si>
-  <si>
     <t>Liquidación Voluntaria Persona Natural</t>
   </si>
   <si>
     <t>Otros Ejecutivos</t>
   </si>
   <si>
+    <t>Demencia S/Cert. Compin, Interdicción Por</t>
+  </si>
+  <si>
+    <t>Arbitro Y Derivados, Designación De</t>
+  </si>
+  <si>
     <t>Arrendamiento,Cobro Renta Bs.raices Urbanos</t>
-  </si>
-  <si>
-    <t>Demencia S/Cert. Compin, Interdicción Por</t>
-  </si>
-  <si>
-    <t>Arbitro Y Derivados, Designación De</t>
   </si>
   <si>
     <t>Reconocimiento Firma,Citación Y Confesión De Deuda</t>
